--- a/setting/绩效条目配置表.xlsx
+++ b/setting/绩效条目配置表.xlsx
@@ -1,3 +1,252 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Performance_Tool\setting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068A4446-8A7B-4C3C-BF62-4FA171BCBC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21450" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="综合办主任" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+  <si>
+    <t>指标/目标名称</t>
+  </si>
+  <si>
+    <t>绩效标准</t>
+  </si>
+  <si>
+    <t>评分标准及验证方法</t>
+  </si>
+  <si>
+    <t>分值</t>
+  </si>
+  <si>
+    <t>OA系统管理及时性</t>
+  </si>
+  <si>
+    <t>按规定时限完成文件流转、登记、存档</t>
+  </si>
+  <si>
+    <t>扣分项：未按时签收文件、按要求流转文件每次扣0.5分。</t>
+  </si>
+  <si>
+    <t>上级文件学习完整性</t>
+  </si>
+  <si>
+    <t>100%审核原始凭证</t>
+  </si>
+  <si>
+    <t>扣分项：一次未学习扣0.5分；学习签到、记录不全一次扣0.5分。</t>
+  </si>
+  <si>
+    <t>纪律和作风建设专项整治工作完成及时性</t>
+  </si>
+  <si>
+    <t>按要求上报各项资料</t>
+  </si>
+  <si>
+    <t>扣分项：上报内容少一项扣1分，上报资料出现一处错误扣1分，部门会议记录不全一处扣1分，未成立领导小组扣1分，以此类推。</t>
+  </si>
+  <si>
+    <t>共建活动组织及时性</t>
+  </si>
+  <si>
+    <t>每项共建活动组织到位</t>
+  </si>
+  <si>
+    <t>扣分项：共建活动未提前准备扣1分，共建活动组织不到位扣1分。</t>
+  </si>
+  <si>
+    <t>财务工作完成率</t>
+  </si>
+  <si>
+    <t>每月按时完成单据整理、原始凭证初审等工作</t>
+  </si>
+  <si>
+    <t>扣分项：未在规定填写单据，扣1分，报账资料一项不齐全，扣1分，原始凭证审核不符合规定一处，扣0.5分，扣完为止</t>
+  </si>
+  <si>
+    <t>疫情防控工作完成及时性</t>
+  </si>
+  <si>
+    <t>按上级要求开展疫情防控工作</t>
+  </si>
+  <si>
+    <t>扣分项：按要求上报疫情防控排查报告，每日上报疫情日报，上报员工出行备案情况，未上报报告、日报、出行备案情况，且内容不详实一次扣1分，以此类推。</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>问题整改100%</t>
+  </si>
+  <si>
+    <t>扣分项：问题未整改不得分，整改一处不到位扣0.5分，扣完为止。</t>
+  </si>
+  <si>
+    <t>每月按时开展教育培训、文件学习</t>
+  </si>
+  <si>
+    <t>扣分项：每月未按时开展教育培训、文件学习，缺一项资料扣1分。</t>
+  </si>
+  <si>
+    <t>每月安全信息系统录入</t>
+  </si>
+  <si>
+    <t>扣分项：按时录入安全信息系统，安全科提出的问题及时整改，发现一处录入不及时扣0.5分，以此类推。</t>
+  </si>
+  <si>
+    <t>局务会议记录规范性</t>
+  </si>
+  <si>
+    <t>根据局务会管理制度记录</t>
+  </si>
+  <si>
+    <t>扣分项：领导要求的未记录一次扣0.5分，开会内容少一项扣1分。</t>
+  </si>
+  <si>
+    <t>临时性工作完成率</t>
+  </si>
+  <si>
+    <t>100%完成</t>
+  </si>
+  <si>
+    <t>扣分项：各类临时性工作未按时完成，发现1次扣0.5分。</t>
+  </si>
+  <si>
+    <t>是否生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键业绩指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标分解指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣分项：未在规定时间内上报预算编制，扣2分，内容不全面一处，扣1分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月最后一日按时上报下月预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
@@ -258,4 +507,305 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="111.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/setting/绩效条目配置表.xlsx
+++ b/setting/绩效条目配置表.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Performance_Tool\setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068A4446-8A7B-4C3C-BF62-4FA171BCBC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA78325-F788-42C1-A3A2-1B598C4CB6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21450" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="6150" windowWidth="22620" windowHeight="10710" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="综合办主任" sheetId="1" r:id="rId1"/>
+    <sheet name="人员岗位配置" sheetId="2" r:id="rId1"/>
+    <sheet name="综合办主任" sheetId="1" r:id="rId2"/>
+    <sheet name="综合管理员" sheetId="3" r:id="rId3"/>
+    <sheet name="客户经理" sheetId="4" r:id="rId4"/>
+    <sheet name="市场监管员" sheetId="5" r:id="rId5"/>
+    <sheet name="后勤" sheetId="6" r:id="rId6"/>
+    <sheet name="驾驶员" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="216">
   <si>
     <t>指标/目标名称</t>
   </si>
@@ -166,6 +172,534 @@
   <si>
     <t>每月最后一日按时上报下月预算</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德峰</t>
+  </si>
+  <si>
+    <t>亓莹彬</t>
+  </si>
+  <si>
+    <t>芝作骞</t>
+  </si>
+  <si>
+    <t>刘大鹏</t>
+  </si>
+  <si>
+    <t>刘文福</t>
+  </si>
+  <si>
+    <t>杨小林</t>
+  </si>
+  <si>
+    <t>吴婧</t>
+  </si>
+  <si>
+    <t>陈龙</t>
+  </si>
+  <si>
+    <t>罗宏国</t>
+  </si>
+  <si>
+    <t>周玉发</t>
+  </si>
+  <si>
+    <t>赵清恒</t>
+  </si>
+  <si>
+    <t>柳静静</t>
+  </si>
+  <si>
+    <t>姬发章</t>
+  </si>
+  <si>
+    <t>董宝珍</t>
+  </si>
+  <si>
+    <t>王曼洁</t>
+  </si>
+  <si>
+    <t>王云鹏</t>
+  </si>
+  <si>
+    <t>王延龄</t>
+  </si>
+  <si>
+    <t>王锋安</t>
+  </si>
+  <si>
+    <t>综合办主任</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键业绩指标</t>
+  </si>
+  <si>
+    <t>党员学习完整性</t>
+  </si>
+  <si>
+    <t>按要求完成党员学习计划并组织学习</t>
+  </si>
+  <si>
+    <t>扣分项：每月制定学习计划、组织学习至少一次，资料完整，每少一项扣0.5分，每推迟一天扣0.5分。</t>
+  </si>
+  <si>
+    <t>“三会一课”完成率</t>
+  </si>
+  <si>
+    <t>“三会一课”会议记录规范、完整。</t>
+  </si>
+  <si>
+    <t>扣分项：按时完成《党支部工作台账》“三会一课”记录，每少一项扣0.5分，记录不规范扣0.5分。</t>
+  </si>
+  <si>
+    <t>主题党日完成率</t>
+  </si>
+  <si>
+    <t>按要求组织开展“主题党日”活动。</t>
+  </si>
+  <si>
+    <t>扣分项：活动不规范每次扣0.5分，未及时开展每迟一天扣0.5分。</t>
+  </si>
+  <si>
+    <t>党务公开完成率</t>
+  </si>
+  <si>
+    <t>按要求完成党务公开。</t>
+  </si>
+  <si>
+    <t>扣分项：公开内容每少一项扣0.5分，每迟一天扣0.5分。</t>
+  </si>
+  <si>
+    <t>党支部要点完成情况</t>
+  </si>
+  <si>
+    <t>按照党建科下发的党支部工作要点做好各项工作。</t>
+  </si>
+  <si>
+    <t>扣分项：每有1项未按时间节点要求完成扣1分，扣完为止；党支部要点未按时报党建科的扣5分。</t>
+  </si>
+  <si>
+    <t>党费收缴情况</t>
+  </si>
+  <si>
+    <t>核算2021年党员党费缴纳基数，并于每月20日前在系统内上缴至机关党委。</t>
+  </si>
+  <si>
+    <t>扣分项：未及时收缴党费，每迟一天扣1分；党费收缴延误而被机关党委通报批评的，此项不得分。</t>
+  </si>
+  <si>
+    <t>党风廉政建设工作完成情况</t>
+  </si>
+  <si>
+    <t>根据上级要求，及时传达中央、地方及省州局相关文件精神，并及时完成党风廉政相关工作资料报送。</t>
+  </si>
+  <si>
+    <t>扣分项：未按要求传达文件精神，每少一项扣一分；未开展当月廉政警示教育扣2分，未按要求完成党风廉政工作资料报送，每少一项扣0.5分，每迟一天扣0.5分。</t>
+  </si>
+  <si>
+    <t>“甘肃党建”系统录入完成率</t>
+  </si>
+  <si>
+    <t>每月10日前根据党支部活动开展情况及时录入。</t>
+  </si>
+  <si>
+    <t>扣分项：每少一项扣0.5分，录入不及时扣0.5分。</t>
+  </si>
+  <si>
+    <t>扣分项：纪律和作风建设专项整治工作阶段性情况报告不及时扣5分。</t>
+  </si>
+  <si>
+    <t>目标分解指标</t>
+  </si>
+  <si>
+    <t>晨例会记录</t>
+  </si>
+  <si>
+    <t>每周晨例会记录完整规范。</t>
+  </si>
+  <si>
+    <t>扣分项：一次未记录，领导重要部署记录不全扣0.5分，扣完为止。</t>
+  </si>
+  <si>
+    <t>卷烟营销平台（V6）监督管理模块运行质量</t>
+  </si>
+  <si>
+    <t>根据要求开展工作，避免在卷烟营销平台上出现预警</t>
+  </si>
+  <si>
+    <t>扣分项：在订货时避免出现超过5个零售客户网上订货的浏览器会话标识相同，出现一次预警扣5分；订货周期与订货频次不一致，发现一次/户扣1分。</t>
+  </si>
+  <si>
+    <t>终端改造完成率</t>
+  </si>
+  <si>
+    <t>普通终端改造完成目标任务20%</t>
+  </si>
+  <si>
+    <t>少一户扣2分，改造不彻底根据具体事项扣减相应分值，卷烟陈列不规范扣0.3分，三区未分离扣0.3分，店铺整体形象差扣0.3分，标准分值扣完为止。</t>
+  </si>
+  <si>
+    <t>新商通安装使用率</t>
+  </si>
+  <si>
+    <t>现代终端100%安装新商通，且每月在线时长60小时、扫码100笔以上客户占现代终端的100%</t>
+  </si>
+  <si>
+    <t>占比达到100%的得基本分；每低1个百分点扣0.5分，标准分值扣完为止。</t>
+  </si>
+  <si>
+    <t>主动支付率</t>
+  </si>
+  <si>
+    <t>占有效客户的40%</t>
+  </si>
+  <si>
+    <t>每低1个百分点扣0.5分，标准分值扣完为止。</t>
+  </si>
+  <si>
+    <t>活跃会员达标率</t>
+  </si>
+  <si>
+    <t>微商盟使用率</t>
+  </si>
+  <si>
+    <t>微商盟使用率达到95%得基本分，每欠1个点扣0.5分。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全商品扫码客户达标率_x000D_
+</t>
+  </si>
+  <si>
+    <t>全商品扫码达标客户占新商通使用客户40%以上</t>
+  </si>
+  <si>
+    <t>每低1个百分点扣0.5分，标准分值扣完为止</t>
+  </si>
+  <si>
+    <t>指导客户合理提报需求</t>
+  </si>
+  <si>
+    <t>以v6数据为准</t>
+  </si>
+  <si>
+    <t>因指导不力导致单客户需求满足率低于10%的，出现一户扣0.5分。</t>
+  </si>
+  <si>
+    <t>客户服务质量</t>
+  </si>
+  <si>
+    <t>客户服务手册填写及市场基础维护</t>
+  </si>
+  <si>
+    <t>1户台账未发放或丢失扣1分，1户台账填写不及时（不齐全）一次扣0.2分，数据逻辑关系错误一处扣0.3分，1户卷烟陈列不规范扣0.2分，柜台有杂物扣0.1分，标价签缺1个扣0.1分，标价签未更换一户扣1分，漏访一户扣2分，日、周、月拜访计划、总结每缺1项/次扣0.2分，标准分值扣完为止。</t>
+  </si>
+  <si>
+    <t>真烟外流涉案客户发生率</t>
+  </si>
+  <si>
+    <t>0发生</t>
+  </si>
+  <si>
+    <t>外流1条扣0.1分，扣完为止。</t>
+  </si>
+  <si>
+    <t>临时性工作完成评价</t>
+  </si>
+  <si>
+    <t>各类临时性工作未按时完成，一次扣1分，出现人为错误，一次扣1分，工作中出现弄虚作假行为，发现一次扣3分。工作中出现重大失误而造成严重影响的，该项不得分。</t>
+  </si>
+  <si>
+    <t>8月份查获卷烟条数75条</t>
+  </si>
+  <si>
+    <t>查获卷烟条数达到设定的目标值得基本分；每低一个百分点扣0.1分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>8月份案值1.5万元案值任务完成率</t>
+  </si>
+  <si>
+    <t>查获案值达到设定的目标值得基本分；每低一个百分点扣0.5分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>8月二中队查获假私烟查处任务完成质量</t>
+  </si>
+  <si>
+    <t>8月份至少查获假私烟案件1起，假私烟数量不得少于10条</t>
+  </si>
+  <si>
+    <t>查获假烟达到设定的目标值得基本分；卷烟数量每少1条扣2分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>勘验笔录制作质量，照片打印及时性</t>
+  </si>
+  <si>
+    <t>勘验笔录制作工整真实，照片及时打印，</t>
+  </si>
+  <si>
+    <t>发生严重错误此项不得分，错误一处扣1分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>客户对相关政策知晓率</t>
+  </si>
+  <si>
+    <t>知晓率低于90%，每低一个百分点扣0.2分，分值扣完为止。</t>
+  </si>
+  <si>
+    <t>违法物品登记保存通知书制作质量</t>
+  </si>
+  <si>
+    <t>无错误</t>
+  </si>
+  <si>
+    <t>发生错误情形不得分</t>
+  </si>
+  <si>
+    <t>及时维护零售户基础信息</t>
+  </si>
+  <si>
+    <t>≥95%</t>
+  </si>
+  <si>
+    <t>维护零售户基础信息，达到95%以上得基本分，每低一个百分点扣0.2分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>专销会议落实情况</t>
+  </si>
+  <si>
+    <t>“四员”信息沟通落实到位，信息调查处理到位。</t>
+  </si>
+  <si>
+    <t>未进行信息反馈和跟进处理，每少一次扣1分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>专卖执法人员着装规范</t>
+  </si>
+  <si>
+    <t xml:space="preserve">严格按照《烟草专卖执法人员着装管理规范》着装_x000D_
+</t>
+  </si>
+  <si>
+    <t>每发现一次着装不规范行为扣5分，分值扣完为止。</t>
+  </si>
+  <si>
+    <t>专卖库房管理</t>
+  </si>
+  <si>
+    <t>账簿规范、账物相符、分区存放、记录齐全</t>
+  </si>
+  <si>
+    <t>出车规范性、行车安全性、车辆日常检查及时性</t>
+  </si>
+  <si>
+    <t>填写派车单出车，无违反交规、无处罚，每日对车辆进行检查</t>
+  </si>
+  <si>
+    <t>扣分项：未及时填写派车单一次扣0.5分，私自出车一次扣1分。发现一次违反交通安全管理规定不得分。车辆安全检查每少一次扣1分，由于车辆无法正常运行影响工作不得分。</t>
+  </si>
+  <si>
+    <t>卷烟外流管控质量</t>
+  </si>
+  <si>
+    <t>片区卷烟外流零发生</t>
+  </si>
+  <si>
+    <t>外流1条扣0.1分，基本分扣完为止</t>
+  </si>
+  <si>
+    <t>专卖信息系统应用质量</t>
+  </si>
+  <si>
+    <t>专卖信息管理系统及移动监管APP操作规范</t>
+  </si>
+  <si>
+    <t>执法视音频记录仪使用情况</t>
+  </si>
+  <si>
+    <t>按照《临夏州烟草专卖局执法视音频记录仪使用管理规定》临烟专[2016]58号要求规范使用执法视音频记录仪</t>
+  </si>
+  <si>
+    <t>执法视音频记录仪使用、视听材料与检查计划不符或存储不规范的，每次（项）扣1分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>客户相关政策知晓率≥92%</t>
+  </si>
+  <si>
+    <t>扣分项：账簿启用登记不规范1处扣1分；卷烟未分区存放扣1分；卷烟未在查获当天入库每超一天扣1分，库存卷烟未盘点一次扣1分，日安全检查记录少一次扣1分，账实不符此项不得分。（验证方法见卷烟出入库台账、安全检查记录、库存盘点表）</t>
+  </si>
+  <si>
+    <t>1.未按时在系统中上报真烟信息、条码或上报不准确的，案件处理、行政许可及市场监管等业务未线上线下同步办理，每发现一次扣1分，基本分扣完为止；2.未使用新版移动监管APP、移动办公设备的每发现一次扣2分，市场监管APP未全程使用，每发现一次扣0.5分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>卷烟交接</t>
+  </si>
+  <si>
+    <t>与送货员做好卷烟交接手续，当面清点核对卷烟品牌数量，无误后送货员签字确认</t>
+  </si>
+  <si>
+    <t>扣分项：未办理卷烟交接清点，每发现一次扣1分；以此类推。</t>
+  </si>
+  <si>
+    <t>卷烟库房管理及时性</t>
+  </si>
+  <si>
+    <t>对异性烟分拣及时到位，数量准确无误。</t>
+  </si>
+  <si>
+    <t>扣分项；未按时完成分拣任务扣1分，分拣数量不准确此项不得分。</t>
+  </si>
+  <si>
+    <t>按时参加各种培训和完成培训记录及时性</t>
+  </si>
+  <si>
+    <t>及时做好各种培训记录</t>
+  </si>
+  <si>
+    <t>扣分项：培训记录少一项扣0.5分，未及时开展或每月培训记录不齐全此项不得分。</t>
+  </si>
+  <si>
+    <t>物流器具回收</t>
+  </si>
+  <si>
+    <t>100%回收周转箱</t>
+  </si>
+  <si>
+    <t>扣分项：回收的周转箱数量不符或未履行收回交接手续，扣1分，以此类推。</t>
+  </si>
+  <si>
+    <t>安全作业</t>
+  </si>
+  <si>
+    <t>遵守安全管理规定</t>
+  </si>
+  <si>
+    <t>扣分项：卷烟库房安全检查记录未填写不得分，发出填写不规范，扣1分，卷烟库房存放杂物，扣1分，以此类推。</t>
+  </si>
+  <si>
+    <t>督察考评资料完整性、及时性、准确性</t>
+  </si>
+  <si>
+    <t>按要求上报得分汇总记录、考评通报、工作总结及计划</t>
+  </si>
+  <si>
+    <t>扣分项：上报资料一处错误扣1分，资料上报迟一天扣1分。</t>
+  </si>
+  <si>
+    <t>完成安全信息系统送货员培训、驾驶员档案等内容</t>
+  </si>
+  <si>
+    <t>每月</t>
+  </si>
+  <si>
+    <t>扣分项：未按时完成扣1分，内容录入一处不符合扣0.5分。</t>
+  </si>
+  <si>
+    <t>办事公开资料上报及时性</t>
+  </si>
+  <si>
+    <t>每月25日前</t>
+  </si>
+  <si>
+    <t>扣分项：未上报不得分，上报内容错一处扣1分，扣完为止。</t>
+  </si>
+  <si>
+    <t>督促保安人员做好疫情防控记录填写</t>
+  </si>
+  <si>
+    <t>扣分项：督促保安人员做好出入人员登记，体温检测，每日消毒和酒精检测，发现一次未登记出入人员信息扣1分，发现体温检测未登记一次扣1分，未开展每日消毒扣1分，未开展每日酒精检测扣1分。</t>
+  </si>
+  <si>
+    <t>卫生打扫及时性</t>
+  </si>
+  <si>
+    <t>每周不定期对阅览室、文化室、健身房、小会议室、乒乓球室、党员活动室卫生清洁打扫</t>
+  </si>
+  <si>
+    <t>扣分项：对公共区域卫生未打扫一次扣1分，脏、乱、差此项不得分。</t>
+  </si>
+  <si>
+    <t>四员协同工作质量</t>
+  </si>
+  <si>
+    <t>每周收集整理送货员送货发现异常信息进行会议反馈，处理四员联席会议交办工作任务并及时反馈处理情况。</t>
+  </si>
+  <si>
+    <t>扣分项：信息及处理情况未反馈1项扣1分，交办处理任务未按要求处理1项扣2分。</t>
+  </si>
+  <si>
+    <t>后勤管理及时性</t>
+  </si>
+  <si>
+    <t>扣分项：车辆管理中一项不符合扣1分，食堂管理中一项不符合扣1分，基础设施维修未履行物业管理办法扣1分，分值扣完为止。</t>
+  </si>
+  <si>
+    <t>安全标准化建设交通安全基础资料完整性</t>
+  </si>
+  <si>
+    <t>严格对照企业安全标准化检查标准完善交通安全基础资料</t>
+  </si>
+  <si>
+    <t>扣分项：交通体系记录未更新1处扣2分；交通安全资料缺失一项一次扣1分，基本分扣完为止。</t>
+  </si>
+  <si>
+    <t>开展驾驶员安全教育培训及时性</t>
+  </si>
+  <si>
+    <t>每月4学时</t>
+  </si>
+  <si>
+    <t>扣分项：未及时开展或每月培训记录不齐全此项不得分，培训未纳入私家车驾驶员1人扣1分。</t>
+  </si>
+  <si>
+    <t>检查安全消防设备设施及时性</t>
+  </si>
+  <si>
+    <t>每月检查灭火器、消防栓、饮水机，并有检查记录</t>
+  </si>
+  <si>
+    <t>扣分项：灭火器一具未巡检扣0.5分，一台饮水机未监督清洗扣0.5分，未进行检查此项不得分。</t>
+  </si>
+  <si>
+    <t>车辆耗油统计及时、准确性</t>
+  </si>
+  <si>
+    <t>车辆耗油25日前上报、准确无误。</t>
+  </si>
+  <si>
+    <t>扣分项：每迟报或出现统计错误此项每项扣0.5分。</t>
+  </si>
+  <si>
+    <t>食堂留样监督检查</t>
+  </si>
+  <si>
+    <t>督促厨师每日食品留样</t>
+  </si>
+  <si>
+    <t>扣分项：督促厨师做好每日食品留样记录填写，食品留样拍照发至安全群，监督人每日进行监督，未监督1天扣0.5分，以此类推。</t>
+  </si>
+  <si>
+    <t>卫生检查及时性</t>
+  </si>
+  <si>
+    <t>每周不定期开展各办公室、食堂卫生及办公区域定制检查</t>
+  </si>
+  <si>
+    <t>扣分项：卫生检查记录详细并及时反馈卫生结果得基本分，没有检查记录或未反馈此项不得分。</t>
+  </si>
+  <si>
+    <t>1、车辆管理中要做好定点加油，建立加油台账，车辆维修保养台账，车辆维修严格履行车辆管理办法。2、食堂管理中要做好食材采购记录，食堂费用核算。3、基础设施维修严格履行物业维修管理办法。</t>
   </si>
 </sst>
 </file>
@@ -217,19 +751,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,302 +1041,1818 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B1C88-B113-4F87-B6E5-35D5E935CD7F}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="64" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A596911-3B49-47E9-996B-109F2FDB31A5}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="51.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30D2D4B-7BB8-4DCC-881F-19A0BD753617}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="63" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9005D5-6613-4C7E-9ADD-79BA807B37EB}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="111.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
+      <c r="A2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="4">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="4">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="G15" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C013042-F3D2-4D90-9FA5-EE187AEC49E4}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84C3268-34F5-465C-89CE-9A92F2F84D46}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="57.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>